--- a/data/trans_orig/P78DS_2023_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78DS_2023_R2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DAFC118-5451-4332-88A3-82AB58CEB6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5AF3086-1530-463B-982A-E10A3C716DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{13CFA74C-F709-41C0-8247-3ED18DFF3E63}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AABFF261-9841-4471-8022-8DE9EB67A4F0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="290">
   <si>
     <t>Población según número de retrasos en pagos en 2023 (Tasa respuesta: 96,96%)</t>
   </si>
@@ -80,847 +80,829 @@
     <t>0,6%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2 retrasos</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1 retraso</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>Ningún retraso</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2 retrasos</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,36%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1 retraso</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>Ningún retraso</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
   </si>
   <si>
     <t>5,51%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
   </si>
   <si>
     <t>3,14%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1335,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B1CF29-1614-462A-A194-CDA5E8CDFF13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86FE763-398B-46AD-AC3D-3036B06A2F02}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1471,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>2924</v>
+        <v>4945</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1486,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>2924</v>
+        <v>4945</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1507,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>792</v>
+        <v>838</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1522,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>21</v>
@@ -1537,7 +1519,7 @@
         <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>1310</v>
+        <v>1359</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>23</v>
@@ -1558,7 +1540,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>6295</v>
+        <v>8465</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>26</v>
@@ -1573,7 +1555,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>1400</v>
+        <v>1454</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>29</v>
@@ -1588,67 +1570,67 @@
         <v>11</v>
       </c>
       <c r="N6" s="7">
-        <v>7695</v>
+        <v>9919</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
         <v>314</v>
       </c>
       <c r="D7" s="7">
-        <v>246399</v>
+        <v>294199</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
         <v>517</v>
       </c>
       <c r="I7" s="7">
-        <v>260452</v>
+        <v>276390</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M7" s="7">
         <v>831</v>
       </c>
       <c r="N7" s="7">
-        <v>506851</v>
+        <v>570589</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1660,51 +1642,51 @@
         <v>321</v>
       </c>
       <c r="D8" s="7">
-        <v>253486</v>
+        <v>303502</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" s="7">
         <v>524</v>
       </c>
       <c r="I8" s="7">
-        <v>265294</v>
+        <v>283309</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>845</v>
       </c>
       <c r="N8" s="7">
-        <v>518780</v>
+        <v>586811</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1713,46 +1695,46 @@
         <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>4484</v>
+        <v>4745</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
       </c>
       <c r="I9" s="7">
-        <v>2938</v>
+        <v>2739</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
       </c>
       <c r="N9" s="7">
-        <v>7422</v>
+        <v>7483</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1764,46 +1746,46 @@
         <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>15327</v>
+        <v>15268</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
       </c>
       <c r="I10" s="7">
-        <v>12999</v>
+        <v>12093</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
       </c>
       <c r="N10" s="7">
-        <v>28326</v>
+        <v>27361</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1815,97 +1797,97 @@
         <v>25</v>
       </c>
       <c r="D11" s="7">
-        <v>36859</v>
+        <v>37224</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H11" s="7">
         <v>38</v>
       </c>
       <c r="I11" s="7">
-        <v>30833</v>
+        <v>28740</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M11" s="7">
         <v>63</v>
       </c>
       <c r="N11" s="7">
-        <v>67692</v>
+        <v>65964</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="7">
         <v>335</v>
       </c>
       <c r="D12" s="7">
-        <v>449783</v>
+        <v>448110</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>641</v>
       </c>
       <c r="I12" s="7">
-        <v>494106</v>
+        <v>458538</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>976</v>
       </c>
       <c r="N12" s="7">
-        <v>943889</v>
+        <v>906648</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1917,51 +1899,51 @@
         <v>373</v>
       </c>
       <c r="D13" s="7">
-        <v>506453</v>
+        <v>505347</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H13" s="7">
         <v>700</v>
       </c>
       <c r="I13" s="7">
-        <v>540876</v>
+        <v>502109</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M13" s="7">
         <v>1073</v>
       </c>
       <c r="N13" s="7">
-        <v>1047329</v>
+        <v>1007456</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1970,37 +1952,37 @@
         <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>4059</v>
+        <v>4073</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>3043</v>
+        <v>2868</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
       </c>
       <c r="N14" s="7">
-        <v>7102</v>
+        <v>6941</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>86</v>
@@ -2021,46 +2003,46 @@
         <v>4</v>
       </c>
       <c r="D15" s="7">
-        <v>2852</v>
+        <v>2745</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>89</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H15" s="7">
         <v>7</v>
       </c>
       <c r="I15" s="7">
-        <v>4932</v>
+        <v>4674</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M15" s="7">
         <v>11</v>
       </c>
       <c r="N15" s="7">
-        <v>7784</v>
+        <v>7419</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,97 +2054,97 @@
         <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>8721</v>
+        <v>8435</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
       </c>
       <c r="I16" s="7">
-        <v>16278</v>
+        <v>15265</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
       </c>
       <c r="N16" s="7">
-        <v>24999</v>
+        <v>23700</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="7">
         <v>338</v>
       </c>
       <c r="D17" s="7">
-        <v>302530</v>
+        <v>296627</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>486</v>
       </c>
       <c r="I17" s="7">
-        <v>334958</v>
+        <v>313096</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>824</v>
       </c>
       <c r="N17" s="7">
-        <v>637487</v>
+        <v>609723</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2174,51 +2156,51 @@
         <v>357</v>
       </c>
       <c r="D18" s="7">
-        <v>318161</v>
+        <v>311880</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H18" s="7">
         <v>516</v>
       </c>
       <c r="I18" s="7">
-        <v>359211</v>
+        <v>335903</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M18" s="7">
         <v>873</v>
       </c>
       <c r="N18" s="7">
-        <v>677372</v>
+        <v>647783</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2227,25 +2209,25 @@
         <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>2830</v>
+        <v>2600</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>2324</v>
+        <v>2134</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>119</v>
@@ -2257,16 +2239,16 @@
         <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>5154</v>
+        <v>4735</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>121</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,46 +2260,46 @@
         <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>1097</v>
+        <v>1055</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
       </c>
       <c r="I20" s="7">
-        <v>10910</v>
+        <v>10129</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
       </c>
       <c r="N20" s="7">
-        <v>12007</v>
+        <v>11184</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,97 +2311,97 @@
         <v>26</v>
       </c>
       <c r="D21" s="7">
-        <v>28851</v>
+        <v>28876</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H21" s="7">
         <v>36</v>
       </c>
       <c r="I21" s="7">
-        <v>21376</v>
+        <v>19993</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M21" s="7">
         <v>62</v>
       </c>
       <c r="N21" s="7">
-        <v>50228</v>
+        <v>48869</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="7">
         <v>251</v>
       </c>
       <c r="D22" s="7">
-        <v>277435</v>
+        <v>265398</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>518</v>
       </c>
       <c r="I22" s="7">
-        <v>353398</v>
+        <v>350001</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>769</v>
       </c>
       <c r="N22" s="7">
-        <v>630832</v>
+        <v>615400</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,51 +2413,51 @@
         <v>281</v>
       </c>
       <c r="D23" s="7">
-        <v>310214</v>
+        <v>297930</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H23" s="7">
         <v>567</v>
       </c>
       <c r="I23" s="7">
-        <v>388008</v>
+        <v>382257</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M23" s="7">
         <v>848</v>
       </c>
       <c r="N23" s="7">
-        <v>698221</v>
+        <v>680187</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2493,13 +2475,13 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
       </c>
       <c r="I24" s="7">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>119</v>
@@ -2508,22 +2490,22 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
       </c>
       <c r="N24" s="7">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,22 +2517,22 @@
         <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>1139</v>
+        <v>1034</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>30</v>
@@ -2559,22 +2541,22 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
       </c>
       <c r="N25" s="7">
-        <v>1605</v>
+        <v>1463</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,97 +2568,97 @@
         <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>1513</v>
+        <v>1377</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
       </c>
       <c r="I26" s="7">
-        <v>3458</v>
+        <v>3121</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
       </c>
       <c r="N26" s="7">
-        <v>4971</v>
+        <v>4498</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27" s="7">
         <v>271</v>
       </c>
       <c r="D27" s="7">
-        <v>191665</v>
+        <v>174135</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H27" s="7">
         <v>476</v>
       </c>
       <c r="I27" s="7">
-        <v>249513</v>
+        <v>249783</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M27" s="7">
         <v>747</v>
       </c>
       <c r="N27" s="7">
-        <v>441179</v>
+        <v>423918</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,51 +2670,51 @@
         <v>275</v>
       </c>
       <c r="D28" s="7">
-        <v>194317</v>
+        <v>176546</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H28" s="7">
         <v>487</v>
       </c>
       <c r="I28" s="7">
-        <v>253839</v>
+        <v>253696</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M28" s="7">
         <v>762</v>
       </c>
       <c r="N28" s="7">
-        <v>448156</v>
+        <v>430242</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2741,46 +2723,46 @@
         <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
       </c>
       <c r="I29" s="7">
-        <v>882</v>
+        <v>827</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
       </c>
       <c r="N29" s="7">
-        <v>1041</v>
+        <v>990</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>85</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,46 +2774,46 @@
         <v>6</v>
       </c>
       <c r="D30" s="7">
-        <v>4883</v>
+        <v>4794</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
       </c>
       <c r="I30" s="7">
-        <v>5666</v>
+        <v>5270</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
       </c>
       <c r="N30" s="7">
-        <v>10549</v>
+        <v>10064</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,13 +2825,13 @@
         <v>10</v>
       </c>
       <c r="D31" s="7">
-        <v>6238</v>
+        <v>6030</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>186</v>
@@ -2858,82 +2840,82 @@
         <v>12</v>
       </c>
       <c r="I31" s="7">
-        <v>8313</v>
+        <v>7687</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M31" s="7">
         <v>22</v>
       </c>
       <c r="N31" s="7">
-        <v>14551</v>
+        <v>13717</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" s="7">
         <v>347</v>
       </c>
       <c r="D32" s="7">
-        <v>260677</v>
+        <v>253573</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H32" s="7">
         <v>431</v>
       </c>
       <c r="I32" s="7">
-        <v>257806</v>
+        <v>240510</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M32" s="7">
         <v>778</v>
       </c>
       <c r="N32" s="7">
-        <v>518482</v>
+        <v>494083</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,51 +2927,51 @@
         <v>364</v>
       </c>
       <c r="D33" s="7">
-        <v>271957</v>
+        <v>264560</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H33" s="7">
         <v>454</v>
       </c>
       <c r="I33" s="7">
-        <v>272667</v>
+        <v>254294</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M33" s="7">
         <v>818</v>
       </c>
       <c r="N33" s="7">
-        <v>544623</v>
+        <v>518854</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2998,46 +2980,46 @@
         <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>2208</v>
+        <v>2145</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>87</v>
+        <v>201</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
       </c>
       <c r="I34" s="7">
-        <v>1737</v>
+        <v>1653</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M34" s="7">
         <v>6</v>
       </c>
       <c r="N34" s="7">
-        <v>3946</v>
+        <v>3798</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,46 +3031,46 @@
         <v>5</v>
       </c>
       <c r="D35" s="7">
-        <v>4312</v>
+        <v>4188</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>208</v>
+        <v>27</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>203</v>
+        <v>23</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H35" s="7">
         <v>15</v>
       </c>
       <c r="I35" s="7">
-        <v>7173</v>
+        <v>6816</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>211</v>
+        <v>122</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M35" s="7">
         <v>20</v>
       </c>
       <c r="N35" s="7">
-        <v>11485</v>
+        <v>11004</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>58</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,97 +3082,97 @@
         <v>22</v>
       </c>
       <c r="D36" s="7">
-        <v>21227</v>
+        <v>20992</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H36" s="7">
         <v>68</v>
       </c>
       <c r="I36" s="7">
-        <v>53522</v>
+        <v>49754</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M36" s="7">
         <v>90</v>
       </c>
       <c r="N36" s="7">
-        <v>74748</v>
+        <v>70745</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>223</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37" s="7">
         <v>539</v>
       </c>
       <c r="D37" s="7">
-        <v>564438</v>
+        <v>561813</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H37" s="7">
         <v>827</v>
       </c>
       <c r="I37" s="7">
-        <v>708381</v>
+        <v>760531</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="M37" s="7">
         <v>1366</v>
       </c>
       <c r="N37" s="7">
-        <v>1272820</v>
+        <v>1322343</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,51 +3184,51 @@
         <v>568</v>
       </c>
       <c r="D38" s="7">
-        <v>592185</v>
+        <v>589137</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H38" s="7">
         <v>914</v>
       </c>
       <c r="I38" s="7">
-        <v>770814</v>
+        <v>818754</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M38" s="7">
         <v>1482</v>
       </c>
       <c r="N38" s="7">
-        <v>1362999</v>
+        <v>1407890</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3255,46 +3237,46 @@
         <v>4</v>
       </c>
       <c r="D39" s="7">
-        <v>4151</v>
+        <v>3427</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H39" s="7">
         <v>3</v>
       </c>
       <c r="I39" s="7">
-        <v>2429</v>
+        <v>2066</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>152</v>
+        <v>232</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>85</v>
+        <v>233</v>
       </c>
       <c r="M39" s="7">
         <v>7</v>
       </c>
       <c r="N39" s="7">
-        <v>6580</v>
+        <v>5493</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>235</v>
+        <v>153</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>50</v>
+        <v>234</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,46 +3288,46 @@
         <v>88</v>
       </c>
       <c r="D40" s="7">
-        <v>89485</v>
+        <v>75315</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H40" s="7">
         <v>107</v>
       </c>
       <c r="I40" s="7">
-        <v>86100</v>
+        <v>71116</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M40" s="7">
         <v>195</v>
       </c>
       <c r="N40" s="7">
-        <v>175584</v>
+        <v>146431</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3357,97 +3339,97 @@
         <v>205</v>
       </c>
       <c r="D41" s="7">
-        <v>207183</v>
+        <v>176440</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H41" s="7">
         <v>290</v>
       </c>
       <c r="I41" s="7">
-        <v>231126</v>
+        <v>192156</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M41" s="7">
         <v>495</v>
       </c>
       <c r="N41" s="7">
-        <v>438309</v>
+        <v>368597</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42" s="7">
         <v>452</v>
       </c>
       <c r="D42" s="7">
-        <v>541893</v>
+        <v>660035</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H42" s="7">
         <v>627</v>
       </c>
       <c r="I42" s="7">
-        <v>515997</v>
+        <v>425470</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M42" s="7">
         <v>1079</v>
       </c>
       <c r="N42" s="7">
-        <v>1057890</v>
+        <v>1085506</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,46 +3441,46 @@
         <v>749</v>
       </c>
       <c r="D43" s="7">
-        <v>842712</v>
+        <v>915218</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H43" s="7">
         <v>1027</v>
       </c>
       <c r="I43" s="7">
-        <v>835652</v>
+        <v>690809</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M43" s="7">
         <v>1776</v>
       </c>
       <c r="N43" s="7">
-        <v>1678364</v>
+        <v>1606028</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,46 +3494,46 @@
         <v>15</v>
       </c>
       <c r="D44" s="7">
-        <v>17893</v>
+        <v>17153</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>156</v>
+        <v>261</v>
       </c>
       <c r="H44" s="7">
         <v>21</v>
       </c>
       <c r="I44" s="7">
-        <v>16678</v>
+        <v>17595</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>263</v>
+        <v>160</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>264</v>
+        <v>19</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M44" s="7">
         <v>36</v>
       </c>
       <c r="N44" s="7">
-        <v>34571</v>
+        <v>34749</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>266</v>
+        <v>160</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>267</v>
+        <v>173</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,46 +3545,46 @@
         <v>118</v>
       </c>
       <c r="D45" s="7">
-        <v>119885</v>
+        <v>105237</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H45" s="7">
         <v>167</v>
       </c>
       <c r="I45" s="7">
-        <v>128765</v>
+        <v>111047</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>273</v>
+        <v>128</v>
       </c>
       <c r="M45" s="7">
         <v>285</v>
       </c>
       <c r="N45" s="7">
-        <v>248650</v>
+        <v>216284</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>276</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,97 +3596,97 @@
         <v>308</v>
       </c>
       <c r="D46" s="7">
-        <v>316886</v>
+        <v>287840</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H46" s="7">
         <v>478</v>
       </c>
       <c r="I46" s="7">
-        <v>366308</v>
+        <v>318169</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M46" s="7">
         <v>786</v>
       </c>
       <c r="N46" s="7">
-        <v>683194</v>
+        <v>606009</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47" s="7">
         <v>2847</v>
       </c>
       <c r="D47" s="7">
-        <v>2834821</v>
+        <v>2953890</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H47" s="7">
         <v>4523</v>
       </c>
       <c r="I47" s="7">
-        <v>3174608</v>
+        <v>3074321</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M47" s="7">
         <v>7370</v>
       </c>
       <c r="N47" s="7">
-        <v>6009430</v>
+        <v>6028210</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,51 +3698,51 @@
         <v>3288</v>
       </c>
       <c r="D48" s="7">
-        <v>3289485</v>
+        <v>3364120</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H48" s="7">
         <v>5189</v>
       </c>
       <c r="I48" s="7">
-        <v>3686359</v>
+        <v>3521132</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M48" s="7">
         <v>8477</v>
       </c>
       <c r="N48" s="7">
-        <v>6975844</v>
+        <v>6885251</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
